--- a/top_list.xlsx
+++ b/top_list.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\ourguild\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EF553B-BFA6-481D-897A-62CD5470BEFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72273375-43F3-42AA-81D2-0AF045E25BDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28425" yWindow="450" windowWidth="20565" windowHeight="19905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28425" yWindow="450" windowWidth="20565" windowHeight="19905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DPS" sheetId="1" r:id="rId1"/>
-    <sheet name="治疗" sheetId="2" r:id="rId2"/>
+    <sheet name="2020-2-13" sheetId="1" r:id="rId1"/>
+    <sheet name="2020-2-21" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>角色</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,39 +70,147 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>好运的大馒头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了卡兹莫都</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉粉玥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>放生那个贼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦雪依旧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>总计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>龙六</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>致命一血</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水柔清</t>
+    <t>职业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风爷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风若停了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗贼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一色彩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丘马丘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会潜行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴萨贼溜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐某</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>术士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔的翅膀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊爸爸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星空流光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溜溜木溜溜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好厉害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小的腾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤寂行者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪碧透心凉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊嘫饭特稀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达尔辰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +242,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -143,7 +260,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -160,21 +277,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="汇总" xfId="2" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,130 +688,831 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>43874</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13">
+        <v>1</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13">
+        <v>1</v>
+      </c>
+      <c r="I2" s="13">
+        <v>1</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13">
+        <f>SUM(C2:J2)</f>
+        <v>7</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14">
+        <v>1</v>
+      </c>
+      <c r="J3" s="14">
+        <v>1</v>
+      </c>
+      <c r="K3" s="14">
+        <f>SUM(C3:J3)</f>
+        <v>7</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="14">
+        <f>SUM(C4:J4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14">
+        <f>SUM(C5:J5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15">
+        <v>1</v>
+      </c>
+      <c r="K6" s="15">
+        <f>SUM(C6:J6)</f>
+        <v>6</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G2">
-        <f>SUM(B2:F2)</f>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16">
+        <v>1</v>
+      </c>
+      <c r="K7" s="16">
+        <f>SUM(C7:J7)</f>
+        <v>5</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14">
+        <v>1</v>
+      </c>
+      <c r="J8" s="14">
+        <v>1</v>
+      </c>
+      <c r="K8" s="14">
+        <f>SUM(C8:J8)</f>
+        <v>7</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14">
+        <f>SUM(C9:J9)</f>
+        <v>5</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+      <c r="J10" s="14">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14">
+        <f>SUM(C10:J10)</f>
+        <v>8</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14">
+        <v>1</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="14">
+        <f>SUM(C11:J11)</f>
+        <v>3</v>
+      </c>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14">
+        <f>SUM(C12:J12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14">
+        <f>SUM(C13:J13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15">
+        <f>SUM(C14:J14)</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16">
+        <f>SUM(C15:J15)</f>
+        <v>4</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14">
+        <v>1</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1</v>
+      </c>
+      <c r="J16" s="14">
+        <v>1</v>
+      </c>
+      <c r="K16" s="14">
+        <f>SUM(C16:J16)</f>
+        <v>4</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1</v>
+      </c>
+      <c r="J17" s="15">
+        <v>1</v>
+      </c>
+      <c r="K17" s="15">
+        <f>SUM(C17:J17)</f>
+        <v>3</v>
+      </c>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="16">
+        <v>1</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16">
+        <v>1</v>
+      </c>
+      <c r="I18" s="16">
+        <v>1</v>
+      </c>
+      <c r="J18" s="16">
+        <v>1</v>
+      </c>
+      <c r="K18" s="16">
+        <f>SUM(C18:J18)</f>
+        <v>7</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14">
+        <f>SUM(C19:J19)</f>
+        <v>4</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14">
+        <v>1</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14">
+        <f>SUM(C20:J20)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="14">
+        <v>1</v>
+      </c>
+      <c r="K21" s="14">
+        <f>SUM(C21:J21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15">
+        <v>1</v>
+      </c>
+      <c r="K22" s="15">
+        <f>SUM(C22:J22)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="16">
+        <v>1</v>
+      </c>
+      <c r="D23" s="16">
+        <v>1</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
+      <c r="G23" s="16">
+        <v>1</v>
+      </c>
+      <c r="H23" s="16">
+        <v>1</v>
+      </c>
+      <c r="I23" s="16">
+        <v>1</v>
+      </c>
+      <c r="J23" s="16">
+        <v>1</v>
+      </c>
+      <c r="K23" s="16">
+        <f>SUM(C23:J23)</f>
+        <v>7</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14">
+        <v>1</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14">
+        <v>1</v>
+      </c>
+      <c r="K24" s="14">
+        <f>SUM(C24:J24)</f>
         <v>3</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G9" si="0">SUM(B3:F3)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14">
+        <v>1</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14">
+        <f>SUM(C25:J25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14">
+        <v>1</v>
+      </c>
+      <c r="K26" s="14">
+        <f>SUM(C26:J26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15">
+        <v>1</v>
+      </c>
+      <c r="F27" s="15">
+        <v>1</v>
+      </c>
+      <c r="G27" s="15">
+        <v>1</v>
+      </c>
+      <c r="H27" s="15">
+        <v>1</v>
+      </c>
+      <c r="I27" s="15">
+        <v>1</v>
+      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15">
+        <f>SUM(C27:J27)</f>
         <v>6</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
+      <c r="L27" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A27"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -584,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A65CF00-E05C-4CBF-8741-6645D58A90B0}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" activeCellId="1" sqref="A10 A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -597,116 +1534,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>43874</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <f>SUM(B2:F2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G9" si="0">SUM(B3:F3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/top_list.xlsx
+++ b/top_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\ourguild\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72273375-43F3-42AA-81D2-0AF045E25BDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2D5F11-09B4-46BF-A962-929A13503BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28425" yWindow="450" windowWidth="20565" windowHeight="19905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28425" yWindow="450" windowWidth="20565" windowHeight="19905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2-13" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="48">
   <si>
     <t>角色</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -212,6 +212,17 @@
   <si>
     <t>√</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大圣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千雪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
   </si>
 </sst>
 </file>
@@ -371,24 +382,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -405,6 +401,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -690,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -742,765 +753,765 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13">
-        <v>1</v>
-      </c>
-      <c r="E2" s="13">
-        <v>1</v>
-      </c>
-      <c r="F2" s="13">
-        <v>1</v>
-      </c>
-      <c r="G2" s="13">
-        <v>1</v>
-      </c>
-      <c r="H2" s="13">
-        <v>1</v>
-      </c>
-      <c r="I2" s="13">
-        <v>1</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13">
-        <f>SUM(C2:J2)</f>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8">
+        <f t="shared" ref="K2:K27" si="0">SUM(C2:J2)</f>
         <v>7</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14">
-        <v>1</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14">
-        <v>1</v>
-      </c>
-      <c r="H3" s="14">
-        <v>1</v>
-      </c>
-      <c r="I3" s="14">
-        <v>1</v>
-      </c>
-      <c r="J3" s="14">
-        <v>1</v>
-      </c>
-      <c r="K3" s="14">
-        <f>SUM(C3:J3)</f>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14">
-        <v>1</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14">
-        <v>1</v>
-      </c>
-      <c r="I4" s="14" t="s">
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="14">
-        <f>SUM(C4:J4)</f>
+      <c r="K4" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14">
-        <f>SUM(C5:J5)</f>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15">
-        <v>1</v>
-      </c>
-      <c r="F6" s="15">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15">
-        <v>1</v>
-      </c>
-      <c r="H6" s="15">
-        <v>1</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15">
-        <v>1</v>
-      </c>
-      <c r="K6" s="15">
-        <f>SUM(C6:J6)</f>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="16">
-        <v>1</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16">
-        <v>1</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16">
-        <v>1</v>
-      </c>
-      <c r="K7" s="16">
-        <f>SUM(C7:J7)</f>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
-      <c r="F8" s="14">
-        <v>1</v>
-      </c>
-      <c r="G8" s="14">
-        <v>1</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14">
-        <v>1</v>
-      </c>
-      <c r="J8" s="14">
-        <v>1</v>
-      </c>
-      <c r="K8" s="14">
-        <f>SUM(C8:J8)</f>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14">
-        <v>1</v>
-      </c>
-      <c r="H9" s="14">
-        <v>1</v>
-      </c>
-      <c r="I9" s="14">
-        <v>1</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14">
-        <f>SUM(C9:J9)</f>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="14">
-        <v>1</v>
-      </c>
-      <c r="D10" s="14">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14">
-        <v>1</v>
-      </c>
-      <c r="H10" s="14">
-        <v>1</v>
-      </c>
-      <c r="I10" s="14">
-        <v>1</v>
-      </c>
-      <c r="J10" s="14">
-        <v>1</v>
-      </c>
-      <c r="K10" s="14">
-        <f>SUM(C10:J10)</f>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="14">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14">
-        <v>1</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14">
-        <v>1</v>
-      </c>
-      <c r="I11" s="14" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="14">
-        <f>SUM(C11:J11)</f>
+      <c r="K11" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L11" s="17"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14">
-        <v>1</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14">
-        <f>SUM(C12:J12)</f>
+      <c r="C12" s="12"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14">
-        <f>SUM(C13:J13)</f>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15">
-        <v>1</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15">
-        <f>SUM(C14:J14)</f>
-        <v>1</v>
-      </c>
-      <c r="L14" s="15"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="16">
-        <v>1</v>
-      </c>
-      <c r="D15" s="16">
-        <v>1</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16">
-        <v>1</v>
-      </c>
-      <c r="G15" s="16">
-        <v>1</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16">
-        <f>SUM(C15:J15)</f>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14">
-        <v>1</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14">
-        <v>1</v>
-      </c>
-      <c r="I16" s="14">
-        <v>1</v>
-      </c>
-      <c r="J16" s="14">
-        <v>1</v>
-      </c>
-      <c r="K16" s="14">
-        <f>SUM(C16:J16)</f>
+      <c r="C16" s="12"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="15">
-        <v>1</v>
-      </c>
-      <c r="H17" s="15" t="s">
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="15">
-        <v>1</v>
-      </c>
-      <c r="J17" s="15">
-        <v>1</v>
-      </c>
-      <c r="K17" s="15">
-        <f>SUM(C17:J17)</f>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L17" s="15"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="16">
-        <v>1</v>
-      </c>
-      <c r="D18" s="16">
-        <v>1</v>
-      </c>
-      <c r="E18" s="16">
-        <v>1</v>
-      </c>
-      <c r="F18" s="16">
-        <v>1</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16">
-        <v>1</v>
-      </c>
-      <c r="I18" s="16">
-        <v>1</v>
-      </c>
-      <c r="J18" s="16">
-        <v>1</v>
-      </c>
-      <c r="K18" s="16">
-        <f>SUM(C18:J18)</f>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+      <c r="J18" s="11">
+        <v>1</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="14">
-        <v>1</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14">
-        <v>1</v>
-      </c>
-      <c r="G19" s="14">
-        <v>1</v>
-      </c>
-      <c r="H19" s="14">
-        <v>1</v>
-      </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14">
-        <f>SUM(C19:J19)</f>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14">
-        <v>1</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14">
-        <v>1</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14">
-        <v>1</v>
-      </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14">
-        <f>SUM(C20:J20)</f>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="14">
-        <v>1</v>
-      </c>
-      <c r="K21" s="14">
-        <f>SUM(C21:J21)</f>
+      <c r="J21" s="9">
+        <v>1</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15">
-        <v>1</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15">
-        <v>1</v>
-      </c>
-      <c r="K22" s="15">
-        <f>SUM(C22:J22)</f>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10">
+        <v>1</v>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L22" s="15"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="16">
-        <v>1</v>
-      </c>
-      <c r="D23" s="16">
-        <v>1</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16">
-        <v>1</v>
-      </c>
-      <c r="G23" s="16">
-        <v>1</v>
-      </c>
-      <c r="H23" s="16">
-        <v>1</v>
-      </c>
-      <c r="I23" s="16">
-        <v>1</v>
-      </c>
-      <c r="J23" s="16">
-        <v>1</v>
-      </c>
-      <c r="K23" s="16">
-        <f>SUM(C23:J23)</f>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11">
+        <v>1</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1</v>
+      </c>
+      <c r="K23" s="11">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="L23" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="14">
-        <v>1</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14">
-        <v>1</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14">
-        <v>1</v>
-      </c>
-      <c r="K24" s="14">
-        <f>SUM(C24:J24)</f>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9">
+        <v>1</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14">
-        <v>1</v>
-      </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14">
-        <f>SUM(C25:J25)</f>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9">
+        <v>1</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14">
-        <v>1</v>
-      </c>
-      <c r="K26" s="14">
-        <f>SUM(C26:J26)</f>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9">
+        <v>1</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15">
-        <v>1</v>
-      </c>
-      <c r="E27" s="15">
-        <v>1</v>
-      </c>
-      <c r="F27" s="15">
-        <v>1</v>
-      </c>
-      <c r="G27" s="15">
-        <v>1</v>
-      </c>
-      <c r="H27" s="15">
-        <v>1</v>
-      </c>
-      <c r="I27" s="15">
-        <v>1</v>
-      </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15">
-        <f>SUM(C27:J27)</f>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L27" s="15" t="s">
+      <c r="L27" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1521,30 +1532,728 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A65CF00-E05C-4CBF-8741-6645D58A90B0}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" activeCellId="1" sqref="A10 A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8">
+        <f t="shared" ref="K2:K24" si="0">SUM(C2:J2)</f>
+        <v>8</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9">
+        <v>1</v>
+      </c>
+      <c r="J19" s="9">
+        <v>1</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11">
+        <v>1</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1</v>
+      </c>
+      <c r="I22" s="9">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9">
+        <v>1</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A24"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/top_list.xlsx
+++ b/top_list.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\ourguild\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2D5F11-09B4-46BF-A962-929A13503BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3588FA-945F-43C0-A961-DB012D1360F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28425" yWindow="450" windowWidth="20565" windowHeight="19905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23805" yWindow="540" windowWidth="20565" windowHeight="19905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2-13" sheetId="1" r:id="rId1"/>
     <sheet name="2020-2-21" sheetId="2" r:id="rId2"/>
+    <sheet name="2020-2-28" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="50">
   <si>
     <t>角色</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -223,6 +224,14 @@
   </si>
   <si>
     <t>√</t>
+  </si>
+  <si>
+    <t>雪匕透心凉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙六</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1534,7 +1543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A65CF00-E05C-4CBF-8741-6645D58A90B0}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
@@ -2256,4 +2265,775 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0A9B26-A728-4CAE-8BDE-5F57E6AFEED5}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8">
+        <f t="shared" ref="K2:K25" si="0">SUM(C2:J2)</f>
+        <v>7</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11">
+        <v>1</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10">
+        <v>1</v>
+      </c>
+      <c r="K21" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11">
+        <v>1</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11">
+        <v>1</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9">
+        <v>1</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/top_list.xlsx
+++ b/top_list.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\ourguild\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3588FA-945F-43C0-A961-DB012D1360F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38935D6-239D-4FEC-8D6B-8DA492EAD654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23805" yWindow="540" windowWidth="20565" windowHeight="19905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14505" yWindow="3105" windowWidth="21060" windowHeight="14205" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2-13" sheetId="1" r:id="rId1"/>
     <sheet name="2020-2-21" sheetId="2" r:id="rId2"/>
     <sheet name="2020-2-28" sheetId="3" r:id="rId3"/>
+    <sheet name="2020-3-6" sheetId="5" r:id="rId4"/>
+    <sheet name="2020-3-13" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="56">
   <si>
     <t>角色</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -231,6 +233,30 @@
   </si>
   <si>
     <t>龙六</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林深时见鹿丶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜之非常哀伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷月霜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙灵脾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -377,6 +403,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -387,7 +422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
@@ -424,6 +459,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2271,7 +2309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0A9B26-A728-4CAE-8BDE-5F57E6AFEED5}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -3036,4 +3074,1573 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4912A9-2367-4FBA-9532-795C74A0329A}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8">
+        <f t="shared" ref="K2:K25" si="0">SUM(C2:J2)</f>
+        <v>5</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11">
+        <v>1</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9">
+        <v>1</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11">
+        <v>1</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11">
+        <v>1</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10">
+        <v>1</v>
+      </c>
+      <c r="K25" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9C129E-9333-4FEF-A0B4-7A125EC26650}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>86</v>
+      </c>
+      <c r="D2" s="8">
+        <v>84</v>
+      </c>
+      <c r="E2" s="8">
+        <v>82</v>
+      </c>
+      <c r="F2" s="8">
+        <v>98</v>
+      </c>
+      <c r="G2" s="8">
+        <v>92</v>
+      </c>
+      <c r="H2" s="8">
+        <v>92</v>
+      </c>
+      <c r="I2" s="8">
+        <v>76</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8">
+        <v>92</v>
+      </c>
+      <c r="L2" s="8">
+        <f>COUNT(D2:K2)</f>
+        <v>7</v>
+      </c>
+      <c r="M2" s="8">
+        <f>MAX(E2:K2)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9">
+        <v>81</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9">
+        <v>97</v>
+      </c>
+      <c r="F3" s="9">
+        <v>87</v>
+      </c>
+      <c r="G3" s="9">
+        <v>88</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9">
+        <v>77</v>
+      </c>
+      <c r="J3" s="9">
+        <v>87</v>
+      </c>
+      <c r="K3" s="9">
+        <v>84</v>
+      </c>
+      <c r="L3" s="9">
+        <f t="shared" ref="L3:L24" si="0">COUNT(D3:K3)</f>
+        <v>6</v>
+      </c>
+      <c r="M3" s="9">
+        <f t="shared" ref="M3:M24" si="1">MAX(E3:K3)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9">
+        <v>78</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M4" s="9">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="9">
+        <v>76</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
+        <v>92</v>
+      </c>
+      <c r="G5" s="9">
+        <v>92</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
+        <v>96</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
+        <v>81</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>79</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
+        <v>88</v>
+      </c>
+      <c r="H6" s="10">
+        <v>89</v>
+      </c>
+      <c r="I6" s="10">
+        <v>94</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10">
+        <v>85</v>
+      </c>
+      <c r="L6" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M6" s="10">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11">
+        <v>84</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11">
+        <v>79</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="11">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9">
+        <v>88</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
+        <v>98</v>
+      </c>
+      <c r="F8" s="9">
+        <v>91</v>
+      </c>
+      <c r="G8" s="9">
+        <v>78</v>
+      </c>
+      <c r="H8" s="9">
+        <v>88</v>
+      </c>
+      <c r="I8" s="9">
+        <v>94</v>
+      </c>
+      <c r="J8" s="9">
+        <v>95</v>
+      </c>
+      <c r="K8" s="9">
+        <v>92</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <v>84</v>
+      </c>
+      <c r="D10" s="9">
+        <v>85</v>
+      </c>
+      <c r="E10" s="9">
+        <v>94</v>
+      </c>
+      <c r="F10" s="9">
+        <v>81</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9">
+        <v>92</v>
+      </c>
+      <c r="J10" s="9">
+        <v>95</v>
+      </c>
+      <c r="K10" s="9">
+        <v>94</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="9">
+        <v>82</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="9">
+        <v>95</v>
+      </c>
+      <c r="F11" s="9">
+        <v>92</v>
+      </c>
+      <c r="G11" s="9">
+        <v>87</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9">
+        <v>91</v>
+      </c>
+      <c r="J11" s="9">
+        <v>95</v>
+      </c>
+      <c r="K11" s="9">
+        <v>78</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="9">
+        <v>83</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="9">
+        <v>78</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="9">
+        <v>88</v>
+      </c>
+      <c r="F13" s="9">
+        <v>82</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9">
+        <v>82</v>
+      </c>
+      <c r="J13" s="9">
+        <v>90</v>
+      </c>
+      <c r="K13" s="9">
+        <v>84</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11">
+        <v>98</v>
+      </c>
+      <c r="F14" s="11">
+        <v>76</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="9">
+        <v>79</v>
+      </c>
+      <c r="D15" s="9">
+        <v>89</v>
+      </c>
+      <c r="E15" s="9">
+        <v>96</v>
+      </c>
+      <c r="F15" s="9">
+        <v>89</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9">
+        <v>87</v>
+      </c>
+      <c r="J15" s="9">
+        <v>79</v>
+      </c>
+      <c r="K15" s="9">
+        <v>81</v>
+      </c>
+      <c r="L15" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="9">
+        <v>88</v>
+      </c>
+      <c r="D16" s="12">
+        <v>84</v>
+      </c>
+      <c r="E16" s="9">
+        <v>94</v>
+      </c>
+      <c r="F16" s="9">
+        <v>90</v>
+      </c>
+      <c r="G16" s="9">
+        <v>93</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9">
+        <v>95</v>
+      </c>
+      <c r="J16" s="9">
+        <v>95</v>
+      </c>
+      <c r="K16" s="9">
+        <v>97</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10">
+        <v>78</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10">
+        <v>98</v>
+      </c>
+      <c r="F17" s="10">
+        <v>77</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10">
+        <v>91</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11">
+        <v>96</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11">
+        <v>87</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9">
+        <v>80</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9">
+        <v>87</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9">
+        <v>79</v>
+      </c>
+      <c r="L19" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9">
+        <v>87</v>
+      </c>
+      <c r="G20" s="9">
+        <v>80</v>
+      </c>
+      <c r="H20" s="9">
+        <v>84</v>
+      </c>
+      <c r="I20" s="9">
+        <v>93</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10">
+        <v>89</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10">
+        <v>75</v>
+      </c>
+      <c r="L21" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="9">
+        <v>78</v>
+      </c>
+      <c r="D22" s="9">
+        <v>80</v>
+      </c>
+      <c r="E22" s="9">
+        <v>81</v>
+      </c>
+      <c r="F22" s="9">
+        <v>80</v>
+      </c>
+      <c r="G22" s="9">
+        <v>92</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9">
+        <v>88</v>
+      </c>
+      <c r="K22" s="9">
+        <v>81</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9">
+        <v>98</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9">
+        <v>80</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="10">
+        <v>77</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10">
+        <v>91</v>
+      </c>
+      <c r="G24" s="10">
+        <v>86</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10">
+        <v>93</v>
+      </c>
+      <c r="J24" s="10">
+        <v>84</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A24"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>